--- a/Gam305_TracabilityMatrix (1).xlsx
+++ b/Gam305_TracabilityMatrix (1).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GAM305\GreenGame\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4596D83D-1DF6-475A-B3D3-A2A4D8055CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3825" yWindow="345" windowWidth="28575" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Prototype Title:</t>
   </si>
@@ -155,20 +164,30 @@
   </si>
   <si>
     <t>week 3</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>basic character movement. Left/Right/Forward/Back</t>
+  </si>
+  <si>
+    <t>succesfully added movement, attempted to adjust camera to allow for up/down rotation, to no avail.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -179,7 +198,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -213,71 +232,64 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -467,49 +479,73 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.75"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
-    <col customWidth="1" min="4" max="4" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="19.25"/>
-    <col customWidth="1" min="6" max="6" width="18.25"/>
-    <col customWidth="1" min="7" max="7" width="21.63"/>
-    <col customWidth="1" min="8" max="8" width="16.63"/>
-    <col customWidth="1" min="9" max="9" width="35.38"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.0" customHeight="1">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="85.5" customHeight="1">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,422 +574,428 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gam305_TracabilityMatrix (1).xlsx
+++ b/Gam305_TracabilityMatrix (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GAM305\GreenGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Downloads\GreenGame-main\GreenGame-main\GreenGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4596D83D-1DF6-475A-B3D3-A2A4D8055CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F403E-7B84-4C2E-8C2F-BD4ABD1374FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="345" windowWidth="28575" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="0" windowWidth="27660" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Prototype Title:</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>succesfully added movement, attempted to adjust camera to allow for up/down rotation, to no avail.</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Health/fuel/exp/speed</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>the stats arnt connected.</t>
   </si>
 </sst>
 </file>
@@ -252,10 +264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -271,6 +279,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +504,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -512,33 +524,33 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -575,421 +587,429 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
